--- a/sample_data/pegawai.xlsx
+++ b/sample_data/pegawai.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView windowWidth="19710" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="pegawai" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>TANGGAL PEMERIKSAAN*</t>
   </si>
@@ -23,6 +22,84 @@
     <t>IDENTITAS PESERTA POSBINDU</t>
   </si>
   <si>
+    <t>RIWAYAT PENYAKIT TIDAK MENULAR PADA KELUARGA</t>
+  </si>
+  <si>
+    <t>RIWAYAT PENYAKIT TIDAK MENULAR PADA DIRI SENDIRI</t>
+  </si>
+  <si>
+    <t>WAWANCARA</t>
+  </si>
+  <si>
+    <t>TEKANAN DARAH</t>
+  </si>
+  <si>
+    <t>IMT</t>
+  </si>
+  <si>
+    <t>LINGKAR PERUT(CM)*</t>
+  </si>
+  <si>
+    <t>PEMERIKSAAN GULA</t>
+  </si>
+  <si>
+    <t>RUJUK PUSKESMAS</t>
+  </si>
+  <si>
+    <t>GANGGUAN INDERA</t>
+  </si>
+  <si>
+    <t>Cholesterol (mg/dL)</t>
+  </si>
+  <si>
+    <t>Trigeliserida (mg/dL)</t>
+  </si>
+  <si>
+    <t>LDL (mg/dL)</t>
+  </si>
+  <si>
+    <t>HDL (mg/dL)</t>
+  </si>
+  <si>
+    <t>CO Analyzer</t>
+  </si>
+  <si>
+    <t>SRQ (Jumlah Jawaban "Ya")</t>
+  </si>
+  <si>
+    <t>Pengukuran Kebugaran</t>
+  </si>
+  <si>
+    <t>Pemeriksaan SADANIS</t>
+  </si>
+  <si>
+    <t>Hasil Pemeriksaan IVA</t>
+  </si>
+  <si>
+    <t>UBM</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>Terapi Farmakologi</t>
+  </si>
+  <si>
+    <t>Skor Puma</t>
+  </si>
+  <si>
+    <t>Semester*</t>
+  </si>
+  <si>
+    <t>Diagnosa 1</t>
+  </si>
+  <si>
+    <t>Diagnosa 2</t>
+  </si>
+  <si>
+    <t>Diagnosa 3</t>
+  </si>
+  <si>
     <t>NIK*</t>
   </si>
   <si>
@@ -62,9 +139,6 @@
     <t>GOLONGAN DARAH</t>
   </si>
   <si>
-    <t>RIWAYAT PENYAKIT TIDAK MENULAR PADA KELUARGA</t>
-  </si>
-  <si>
     <t>RIWAYAT 1</t>
   </si>
   <si>
@@ -74,12 +148,6 @@
     <t>RIWAYAT 3</t>
   </si>
   <si>
-    <t>RIWAYAT PENYAKIT TIDAK MENULAR PADA DIRI SENDIRI</t>
-  </si>
-  <si>
-    <t>WAWANCARA</t>
-  </si>
-  <si>
     <t>MEROKOK*</t>
   </si>
   <si>
@@ -89,6 +157,27 @@
     <t>POLA MAKAN</t>
   </si>
   <si>
+    <t>KONSUMSI ALKOHOL*</t>
+  </si>
+  <si>
+    <t>SISTOL*</t>
+  </si>
+  <si>
+    <t>DIASTOL*</t>
+  </si>
+  <si>
+    <t>TINGGI BADAN(CM)*</t>
+  </si>
+  <si>
+    <t>BERAT BADAN(KG)*</t>
+  </si>
+  <si>
+    <t>GANGGUAN PENGLIHATAN</t>
+  </si>
+  <si>
+    <t>GANGGUAN PENDENGARAN</t>
+  </si>
+  <si>
     <t>GULA BERLEBIH*</t>
   </si>
   <si>
@@ -101,45 +190,6 @@
     <t>KURANG MAKAN BUAH DAN SAYUR*</t>
   </si>
   <si>
-    <t>KONSUMSI ALKOHOL*</t>
-  </si>
-  <si>
-    <t>TEKANAN DARAH</t>
-  </si>
-  <si>
-    <t>SISTOL*</t>
-  </si>
-  <si>
-    <t>DIASTOL*</t>
-  </si>
-  <si>
-    <t>IMT</t>
-  </si>
-  <si>
-    <t>TINGGI BADAN(CM)*</t>
-  </si>
-  <si>
-    <t>BERAT BADAN(KG)*</t>
-  </si>
-  <si>
-    <t>LINGKAR PERUT(CM)*</t>
-  </si>
-  <si>
-    <t>PEMERIKSAAN GULA</t>
-  </si>
-  <si>
-    <t>RUJUK PUSKESMAS</t>
-  </si>
-  <si>
-    <t>GANGGUAN INDERA</t>
-  </si>
-  <si>
-    <t>GANGGUAN PENGLIHATAN</t>
-  </si>
-  <si>
-    <t>GANGGUAN PENDENGARAN</t>
-  </si>
-  <si>
     <t>MATA KANAN</t>
   </si>
   <si>
@@ -150,85 +200,185 @@
   </si>
   <si>
     <t>TELINGA KIRI</t>
-  </si>
-  <si>
-    <t>Cholesterol (mg/dL)</t>
-  </si>
-  <si>
-    <t>Trigeliserida (mg/dL)</t>
-  </si>
-  <si>
-    <t>LDL (mg/dL)</t>
-  </si>
-  <si>
-    <t>HDL (mg/dL)</t>
-  </si>
-  <si>
-    <t>CO Analyzer</t>
-  </si>
-  <si>
-    <t>SRQ (Jumlah Jawaban "Ya")</t>
-  </si>
-  <si>
-    <t>Pengukuran Kebugaran</t>
-  </si>
-  <si>
-    <t>Pemeriksaan SADANIS</t>
-  </si>
-  <si>
-    <t>Hasil Pemeriksaan IVA</t>
-  </si>
-  <si>
-    <t>UBM</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>Terapi Farmakologi</t>
-  </si>
-  <si>
-    <t>Skor Puma</t>
-  </si>
-  <si>
-    <t>Semester*</t>
-  </si>
-  <si>
-    <t>Diagnosa 1</t>
-  </si>
-  <si>
-    <t>Diagnosa 2</t>
-  </si>
-  <si>
-    <t>Diagnosa 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,30 +417,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1affe7"/>
+        <fgColor rgb="FF1AFFE7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00740e"/>
+        <fgColor rgb="FF00740E"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0153e3"/>
+        <fgColor rgb="FF0153E3"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF03821c"/>
+        <fgColor rgb="FF03821C"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -336,19 +672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -363,109 +686,416 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="6" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="6" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="7" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="8" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="8" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="9" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="9" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="9" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="10" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="10" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="10" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="6" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="7" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="9" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -750,27 +1380,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:BF4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:BF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B2" sqref="B2:BF4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="9.10" hidden="true" style="0"/>
+    <col min="1" max="1" width="9.1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" ht="15.75" spans="2:58">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,362 +1415,371 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="10"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="5" t="s">
+      <c r="AU1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW1" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="8" t="s">
+      <c r="AY1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="11" t="s">
+      <c r="AZ1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD1" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF1" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="2:58">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="13" t="s">
+      <c r="E2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="15" t="s">
+      <c r="H2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="K2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="L2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="M2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="21" t="s">
+      <c r="N2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="X2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AS1" s="22" t="s">
+      <c r="AC2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AT1" s="22" t="s">
+      <c r="AD2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AU1" s="22" t="s">
+      <c r="AE2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AV1" s="22" t="s">
+      <c r="AF2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AW1" s="22" t="s">
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AX1" s="22" t="s">
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="AY1" s="22" t="s">
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+    </row>
+    <row r="3" spans="2:58">
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AZ1" s="22" t="s">
+      <c r="Y3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="BA1" s="22" t="s">
+      <c r="Z3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="22" t="s">
+      <c r="AA3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="BC1" s="22" t="s">
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="BD1" s="22" t="s">
+      <c r="AK3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="BE1" s="22" t="s">
+      <c r="AL3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="BF1" s="23" t="s">
+      <c r="AN3" s="26" t="s">
         <v>61</v>
       </c>
+      <c r="AO3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
     </row>
-    <row r="2" spans="1:58">
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF2" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="30"/>
-    </row>
-    <row r="3" spans="1:58">
-      <c r="B3" s="24"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK3" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL3" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM3" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO3" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30"/>
-    </row>
-    <row r="4" spans="1:58">
-      <c r="B4" s="24"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="30"/>
-      <c r="AT4" s="30"/>
-      <c r="AU4" s="30"/>
-      <c r="AV4" s="30"/>
-      <c r="AW4" s="30"/>
-      <c r="AX4" s="30"/>
-      <c r="AY4" s="30"/>
-      <c r="AZ4" s="30"/>
-      <c r="BA4" s="30"/>
-      <c r="BB4" s="30"/>
-      <c r="BC4" s="30"/>
-      <c r="BD4" s="30"/>
-      <c r="BE4" s="30"/>
-      <c r="BF4" s="30"/>
+    <row r="4" spans="2:58">
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="67">
+    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AJ1:AO1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:O1"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
@@ -1157,35 +1793,26 @@
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P1:R1"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="R2:R4"/>
-    <mergeCell ref="S1:U1"/>
     <mergeCell ref="S2:S4"/>
     <mergeCell ref="T2:T4"/>
     <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V1:AB1"/>
     <mergeCell ref="V2:V4"/>
     <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:AA2"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AC2:AC4"/>
     <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AE2:AE4"/>
     <mergeCell ref="AF2:AF4"/>
     <mergeCell ref="AG1:AG4"/>
     <mergeCell ref="AH1:AH4"/>
     <mergeCell ref="AI1:AI4"/>
-    <mergeCell ref="AJ1:AO1"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="AL3:AL4"/>
@@ -1210,17 +1837,8 @@
     <mergeCell ref="BE1:BE4"/>
     <mergeCell ref="BF1:BF4"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>